--- a/dataraw/gis/RealTimeKelaniGanga.xlsx
+++ b/dataraw/gis/RealTimeKelaniGanga.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Documents\Ditwah\dataraw\gis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{906AB599-345C-40DD-A5B6-AF8DE3C56B46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{122D57B8-61D8-456F-B5E5-45A8C5ACA854}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{D6E3B70E-F293-4217-86F0-133176A6A3DE}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2079" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2157" uniqueCount="21">
   <si>
     <t>Date</t>
   </si>
@@ -456,10 +456,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{754A2D51-1AF5-437D-8ECE-229BC4314024}">
-  <dimension ref="A1:J686"/>
+  <dimension ref="A1:J712"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A663" workbookViewId="0">
-      <selection activeCell="H587" sqref="H587:J686"/>
+    <sheetView tabSelected="1" topLeftCell="A567" workbookViewId="0">
+      <selection activeCell="H598" sqref="H598:J612"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18251,803 +18251,764 @@
     </row>
     <row r="587" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A587" s="1">
-        <v>45987</v>
+        <v>45991</v>
       </c>
       <c r="B587">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C587" t="s">
         <v>4</v>
       </c>
       <c r="D587" s="2" t="s">
-        <v>12</v>
+        <v>17</v>
+      </c>
+      <c r="F587">
+        <v>7.5</v>
       </c>
       <c r="G587" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H587">
-        <v>1.5</v>
+        <v>4</v>
       </c>
       <c r="I587">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J587">
-        <v>4.5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="588" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A588" s="1">
-        <v>45987</v>
+        <v>45991</v>
       </c>
       <c r="B588">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C588" t="s">
         <v>4</v>
       </c>
       <c r="D588" s="2" t="s">
-        <v>12</v>
+        <v>17</v>
+      </c>
+      <c r="F588">
+        <v>7.5</v>
       </c>
       <c r="G588" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H588">
-        <v>1.5</v>
+        <v>4</v>
       </c>
       <c r="I588">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J588">
-        <v>4.5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="589" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A589" s="1">
-        <v>45987</v>
+        <v>45991</v>
       </c>
       <c r="B589">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C589" t="s">
         <v>4</v>
       </c>
       <c r="D589" s="2" t="s">
-        <v>12</v>
+        <v>17</v>
+      </c>
+      <c r="F589">
+        <v>7.5</v>
       </c>
       <c r="G589" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H589">
-        <v>1.5</v>
+        <v>4</v>
       </c>
       <c r="I589">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J589">
-        <v>4.5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="590" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A590" s="1">
-        <v>45987</v>
+        <v>45991</v>
       </c>
       <c r="B590">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C590" t="s">
         <v>4</v>
       </c>
       <c r="D590" s="2" t="s">
-        <v>12</v>
+        <v>17</v>
+      </c>
+      <c r="F590">
+        <v>7.5</v>
       </c>
       <c r="G590" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H590">
-        <v>1.5</v>
+        <v>4</v>
       </c>
       <c r="I590">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J590">
-        <v>4.5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="591" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A591" s="1">
-        <v>45987</v>
+        <v>45991</v>
       </c>
       <c r="B591">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C591" t="s">
         <v>4</v>
       </c>
       <c r="D591" s="2" t="s">
-        <v>12</v>
+        <v>17</v>
+      </c>
+      <c r="F591">
+        <v>7.5</v>
       </c>
       <c r="G591" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H591">
-        <v>1.5</v>
+        <v>4</v>
       </c>
       <c r="I591">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J591">
-        <v>4.5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="592" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A592" s="1">
-        <v>45987</v>
+        <v>45991</v>
       </c>
       <c r="B592">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C592" t="s">
         <v>4</v>
       </c>
       <c r="D592" s="2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F592">
-        <v>1.1000000000000001</v>
+        <v>7.6</v>
       </c>
       <c r="G592" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H592">
-        <v>1.5</v>
+        <v>4</v>
       </c>
       <c r="I592">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J592">
-        <v>4.5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="593" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A593" s="1">
-        <v>45987</v>
+        <v>45991</v>
       </c>
       <c r="B593">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C593" t="s">
         <v>4</v>
       </c>
       <c r="D593" s="2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F593">
-        <v>1.1000000000000001</v>
+        <v>7.6</v>
       </c>
       <c r="G593" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H593">
-        <v>1.5</v>
+        <v>4</v>
       </c>
       <c r="I593">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J593">
-        <v>4.5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="594" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A594" s="1">
-        <v>45987</v>
+        <v>45991</v>
       </c>
       <c r="B594">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C594" t="s">
         <v>4</v>
       </c>
       <c r="D594" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E594">
-        <v>4.2</v>
+        <v>17</v>
       </c>
       <c r="F594">
-        <v>1.1000000000000001</v>
+        <v>7.7</v>
       </c>
       <c r="G594" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H594">
-        <v>1.5</v>
+        <v>4</v>
       </c>
       <c r="I594">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J594">
-        <v>4.5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="595" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A595" s="1">
-        <v>45987</v>
+        <v>45991</v>
       </c>
       <c r="B595">
+        <v>20</v>
+      </c>
+      <c r="C595" t="s">
+        <v>4</v>
+      </c>
+      <c r="D595" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F595">
+        <v>7.8</v>
+      </c>
+      <c r="G595" t="s">
         <v>16</v>
       </c>
-      <c r="C595" t="s">
-        <v>4</v>
-      </c>
-      <c r="D595" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E595">
-        <v>3.2</v>
-      </c>
-      <c r="F595">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="G595" t="s">
-        <v>15</v>
-      </c>
       <c r="H595">
-        <v>1.5</v>
+        <v>4</v>
       </c>
       <c r="I595">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J595">
-        <v>4.5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="596" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A596" s="1">
-        <v>45987</v>
+        <v>45991</v>
       </c>
       <c r="B596">
+        <v>21</v>
+      </c>
+      <c r="C596" t="s">
+        <v>4</v>
+      </c>
+      <c r="D596" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C596" t="s">
-        <v>4</v>
-      </c>
-      <c r="D596" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E596">
-        <v>6.2</v>
-      </c>
       <c r="F596">
-        <v>1.2</v>
+        <v>7.9</v>
       </c>
       <c r="G596" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H596">
-        <v>1.5</v>
+        <v>4</v>
       </c>
       <c r="I596">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J596">
-        <v>4.5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="597" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A597" s="1">
-        <v>45987</v>
+        <v>45991</v>
       </c>
       <c r="B597">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C597" t="s">
         <v>4</v>
       </c>
       <c r="D597" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E597">
-        <v>3.1</v>
+        <v>17</v>
       </c>
       <c r="F597">
-        <v>1.3</v>
+        <v>8</v>
       </c>
       <c r="G597" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H597">
-        <v>1.5</v>
+        <v>4</v>
       </c>
       <c r="I597">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J597">
-        <v>4.5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="598" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A598" s="1">
-        <v>45987</v>
+        <v>45991</v>
       </c>
       <c r="B598">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C598" t="s">
         <v>4</v>
       </c>
       <c r="D598" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E598">
-        <v>1.5</v>
+        <v>17</v>
       </c>
       <c r="F598">
-        <v>1.4</v>
+        <v>8.1</v>
       </c>
       <c r="G598" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H598">
-        <v>1.5</v>
+        <v>4</v>
       </c>
       <c r="I598">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J598">
-        <v>4.5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="599" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A599" s="1">
-        <v>45987</v>
+        <v>45991</v>
       </c>
       <c r="B599">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C599" t="s">
         <v>4</v>
       </c>
       <c r="D599" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E599">
-        <v>2.1</v>
+        <v>17</v>
       </c>
       <c r="F599">
-        <v>1.5</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="G599" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H599">
-        <v>1.5</v>
+        <v>4</v>
       </c>
       <c r="I599">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J599">
-        <v>4.5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="600" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A600" s="1">
-        <v>45987</v>
+        <v>45992</v>
       </c>
       <c r="B600">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="C600" t="s">
         <v>4</v>
       </c>
       <c r="D600" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E600">
-        <v>1.3</v>
+        <v>17</v>
       </c>
       <c r="F600">
-        <v>1.5</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="G600" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H600">
-        <v>1.5</v>
+        <v>4</v>
       </c>
       <c r="I600">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J600">
-        <v>4.5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="601" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A601" s="1">
-        <v>45987</v>
+        <v>45992</v>
       </c>
       <c r="B601">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="C601" t="s">
         <v>4</v>
       </c>
       <c r="D601" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E601">
-        <v>5.9</v>
+        <v>17</v>
       </c>
       <c r="F601">
-        <v>1.4</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="G601" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H601">
-        <v>1.5</v>
+        <v>4</v>
       </c>
       <c r="I601">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J601">
-        <v>4.5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="602" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A602" s="1">
-        <v>45987</v>
+        <v>45992</v>
       </c>
       <c r="B602">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="C602" t="s">
         <v>4</v>
       </c>
       <c r="D602" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E602">
-        <v>8.5</v>
+        <v>17</v>
       </c>
       <c r="F602">
-        <v>1.4</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="G602" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H602">
-        <v>1.5</v>
+        <v>4</v>
       </c>
       <c r="I602">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J602">
-        <v>4.5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="603" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A603" s="1">
-        <v>45987</v>
+        <v>45992</v>
       </c>
       <c r="B603">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="C603" t="s">
         <v>4</v>
       </c>
       <c r="D603" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E603">
-        <v>5.4</v>
+        <v>17</v>
       </c>
       <c r="F603">
-        <v>1.6</v>
+        <v>8.4</v>
       </c>
       <c r="G603" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H603">
-        <v>1.5</v>
+        <v>4</v>
       </c>
       <c r="I603">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J603">
-        <v>4.5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="604" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A604" s="1">
-        <v>45988</v>
+        <v>45992</v>
       </c>
       <c r="B604">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C604" t="s">
         <v>4</v>
       </c>
       <c r="D604" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E604">
-        <v>3.6</v>
+        <v>17</v>
       </c>
       <c r="F604">
-        <v>1.6</v>
+        <v>8.4</v>
       </c>
       <c r="G604" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H604">
-        <v>1.5</v>
+        <v>4</v>
       </c>
       <c r="I604">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J604">
-        <v>4.5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="605" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A605" s="1">
-        <v>45988</v>
+        <v>45992</v>
       </c>
       <c r="B605">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C605" t="s">
         <v>4</v>
       </c>
       <c r="D605" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E605">
-        <v>7.9</v>
+        <v>17</v>
       </c>
       <c r="F605">
-        <v>1.7</v>
+        <v>8.4</v>
       </c>
       <c r="G605" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H605">
-        <v>1.5</v>
+        <v>4</v>
       </c>
       <c r="I605">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J605">
-        <v>4.5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="606" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A606" s="1">
-        <v>45988</v>
+        <v>45992</v>
       </c>
       <c r="B606">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C606" t="s">
         <v>4</v>
       </c>
       <c r="D606" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E606">
-        <v>8.3000000000000007</v>
+        <v>17</v>
       </c>
       <c r="F606">
-        <v>1.8</v>
+        <v>8.5</v>
       </c>
       <c r="G606" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H606">
-        <v>1.5</v>
+        <v>4</v>
       </c>
       <c r="I606">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J606">
-        <v>4.5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="607" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A607" s="1">
-        <v>45988</v>
+        <v>45992</v>
       </c>
       <c r="B607">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C607" t="s">
         <v>4</v>
       </c>
       <c r="D607" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E607">
-        <v>4.0999999999999996</v>
+        <v>17</v>
       </c>
       <c r="F607">
-        <v>1.9</v>
+        <v>8.5</v>
       </c>
       <c r="G607" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H607">
-        <v>1.5</v>
+        <v>4</v>
       </c>
       <c r="I607">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J607">
-        <v>4.5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="608" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A608" s="1">
-        <v>45988</v>
+        <v>45992</v>
       </c>
       <c r="B608">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C608" t="s">
         <v>4</v>
       </c>
       <c r="D608" s="2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F608">
-        <v>2</v>
+        <v>8.5</v>
       </c>
       <c r="G608" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H608">
-        <v>1.5</v>
+        <v>4</v>
       </c>
       <c r="I608">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J608">
-        <v>4.5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="609" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A609" s="1">
-        <v>45988</v>
+        <v>45992</v>
       </c>
       <c r="B609">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C609" t="s">
         <v>4</v>
       </c>
       <c r="D609" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E609">
-        <v>3.9</v>
+        <v>17</v>
       </c>
       <c r="F609">
-        <v>1.9</v>
+        <v>8.5</v>
       </c>
       <c r="G609" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H609">
-        <v>1.5</v>
+        <v>4</v>
       </c>
       <c r="I609">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J609">
-        <v>4.5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="610" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A610" s="1">
-        <v>45988</v>
+        <v>45992</v>
       </c>
       <c r="B610">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C610" t="s">
         <v>4</v>
       </c>
       <c r="D610" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E610">
-        <v>6.2</v>
+        <v>17</v>
       </c>
       <c r="F610">
-        <v>1.8</v>
+        <v>8.5</v>
       </c>
       <c r="G610" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H610">
-        <v>1.5</v>
+        <v>4</v>
       </c>
       <c r="I610">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J610">
-        <v>4.5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="611" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A611" s="1">
-        <v>45988</v>
+        <v>45992</v>
       </c>
       <c r="B611">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C611" t="s">
         <v>4</v>
       </c>
       <c r="D611" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E611">
-        <v>7.1</v>
+        <v>17</v>
       </c>
       <c r="F611">
-        <v>1.9</v>
+        <v>8.5</v>
       </c>
       <c r="G611" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H611">
-        <v>1.5</v>
+        <v>4</v>
       </c>
       <c r="I611">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J611">
-        <v>4.5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="612" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A612" s="1">
-        <v>45988</v>
+        <v>45992</v>
       </c>
       <c r="B612">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C612" t="s">
         <v>4</v>
       </c>
       <c r="D612" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E612">
-        <v>8.3000000000000007</v>
+        <v>17</v>
       </c>
       <c r="F612">
-        <v>2.2000000000000002</v>
+        <v>8.5</v>
       </c>
       <c r="G612" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H612">
-        <v>1.5</v>
+        <v>4</v>
       </c>
       <c r="I612">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J612">
-        <v>4.5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="613" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A613" s="1">
-        <v>45988</v>
+        <v>45987</v>
       </c>
       <c r="B613">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C613" t="s">
         <v>4</v>
@@ -19055,12 +19016,6 @@
       <c r="D613" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E613">
-        <v>4.8</v>
-      </c>
-      <c r="F613">
-        <v>2.5</v>
-      </c>
       <c r="G613" t="s">
         <v>15</v>
       </c>
@@ -19076,10 +19031,10 @@
     </row>
     <row r="614" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A614" s="1">
-        <v>45988</v>
+        <v>45987</v>
       </c>
       <c r="B614">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C614" t="s">
         <v>4</v>
@@ -19087,12 +19042,6 @@
       <c r="D614" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E614">
-        <v>3.2</v>
-      </c>
-      <c r="F614">
-        <v>2.5</v>
-      </c>
       <c r="G614" t="s">
         <v>15</v>
       </c>
@@ -19108,10 +19057,10 @@
     </row>
     <row r="615" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A615" s="1">
-        <v>45988</v>
+        <v>45987</v>
       </c>
       <c r="B615">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C615" t="s">
         <v>4</v>
@@ -19119,12 +19068,6 @@
       <c r="D615" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E615">
-        <v>1.2</v>
-      </c>
-      <c r="F615">
-        <v>2.5</v>
-      </c>
       <c r="G615" t="s">
         <v>15</v>
       </c>
@@ -19140,10 +19083,10 @@
     </row>
     <row r="616" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A616" s="1">
-        <v>45988</v>
+        <v>45987</v>
       </c>
       <c r="B616">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C616" t="s">
         <v>4</v>
@@ -19151,12 +19094,6 @@
       <c r="D616" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E616">
-        <v>0.4</v>
-      </c>
-      <c r="F616">
-        <v>2.6</v>
-      </c>
       <c r="G616" t="s">
         <v>15</v>
       </c>
@@ -19172,10 +19109,10 @@
     </row>
     <row r="617" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A617" s="1">
-        <v>45988</v>
+        <v>45987</v>
       </c>
       <c r="B617">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C617" t="s">
         <v>4</v>
@@ -19183,9 +19120,6 @@
       <c r="D617" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F617">
-        <v>2.6</v>
-      </c>
       <c r="G617" t="s">
         <v>15</v>
       </c>
@@ -19201,10 +19135,10 @@
     </row>
     <row r="618" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A618" s="1">
-        <v>45988</v>
+        <v>45987</v>
       </c>
       <c r="B618">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C618" t="s">
         <v>4</v>
@@ -19212,11 +19146,8 @@
       <c r="D618" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E618">
-        <v>3.1</v>
-      </c>
       <c r="F618">
-        <v>2.5</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="G618" t="s">
         <v>15</v>
@@ -19233,10 +19164,10 @@
     </row>
     <row r="619" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A619" s="1">
-        <v>45988</v>
+        <v>45987</v>
       </c>
       <c r="B619">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C619" t="s">
         <v>4</v>
@@ -19244,11 +19175,8 @@
       <c r="D619" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E619">
-        <v>30.2</v>
-      </c>
       <c r="F619">
-        <v>2.5</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="G619" t="s">
         <v>15</v>
@@ -19265,10 +19193,10 @@
     </row>
     <row r="620" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A620" s="1">
-        <v>45988</v>
+        <v>45987</v>
       </c>
       <c r="B620">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C620" t="s">
         <v>4</v>
@@ -19277,10 +19205,10 @@
         <v>12</v>
       </c>
       <c r="E620">
-        <v>11</v>
+        <v>4.2</v>
       </c>
       <c r="F620">
-        <v>2.7</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="G620" t="s">
         <v>15</v>
@@ -19297,10 +19225,10 @@
     </row>
     <row r="621" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A621" s="1">
-        <v>45988</v>
+        <v>45987</v>
       </c>
       <c r="B621">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C621" t="s">
         <v>4</v>
@@ -19309,10 +19237,10 @@
         <v>12</v>
       </c>
       <c r="E621">
-        <v>8.9</v>
+        <v>3.2</v>
       </c>
       <c r="F621">
-        <v>2.9</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="G621" t="s">
         <v>15</v>
@@ -19329,10 +19257,10 @@
     </row>
     <row r="622" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A622" s="1">
-        <v>45988</v>
+        <v>45987</v>
       </c>
       <c r="B622">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C622" t="s">
         <v>4</v>
@@ -19341,10 +19269,10 @@
         <v>12</v>
       </c>
       <c r="E622">
-        <v>6.7</v>
+        <v>6.2</v>
       </c>
       <c r="F622">
-        <v>3</v>
+        <v>1.2</v>
       </c>
       <c r="G622" t="s">
         <v>15</v>
@@ -19361,10 +19289,10 @@
     </row>
     <row r="623" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A623" s="1">
-        <v>45988</v>
+        <v>45987</v>
       </c>
       <c r="B623">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C623" t="s">
         <v>4</v>
@@ -19373,10 +19301,10 @@
         <v>12</v>
       </c>
       <c r="E623">
-        <v>5.8</v>
+        <v>3.1</v>
       </c>
       <c r="F623">
-        <v>3.2</v>
+        <v>1.3</v>
       </c>
       <c r="G623" t="s">
         <v>15</v>
@@ -19393,10 +19321,10 @@
     </row>
     <row r="624" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A624" s="1">
-        <v>45988</v>
+        <v>45987</v>
       </c>
       <c r="B624">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C624" t="s">
         <v>4</v>
@@ -19405,10 +19333,10 @@
         <v>12</v>
       </c>
       <c r="E624">
-        <v>14.5</v>
+        <v>1.5</v>
       </c>
       <c r="F624">
-        <v>3.4</v>
+        <v>1.4</v>
       </c>
       <c r="G624" t="s">
         <v>15</v>
@@ -19425,10 +19353,10 @@
     </row>
     <row r="625" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A625" s="1">
-        <v>45988</v>
+        <v>45987</v>
       </c>
       <c r="B625">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C625" t="s">
         <v>4</v>
@@ -19437,10 +19365,10 @@
         <v>12</v>
       </c>
       <c r="E625">
-        <v>8.5</v>
+        <v>2.1</v>
       </c>
       <c r="F625">
-        <v>3.6</v>
+        <v>1.5</v>
       </c>
       <c r="G625" t="s">
         <v>15</v>
@@ -19457,10 +19385,10 @@
     </row>
     <row r="626" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A626" s="1">
-        <v>45988</v>
+        <v>45987</v>
       </c>
       <c r="B626">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C626" t="s">
         <v>4</v>
@@ -19469,10 +19397,10 @@
         <v>12</v>
       </c>
       <c r="E626">
-        <v>2.6</v>
+        <v>1.3</v>
       </c>
       <c r="F626">
-        <v>3.7</v>
+        <v>1.5</v>
       </c>
       <c r="G626" t="s">
         <v>15</v>
@@ -19489,10 +19417,10 @@
     </row>
     <row r="627" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A627" s="1">
-        <v>45988</v>
+        <v>45987</v>
       </c>
       <c r="B627">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C627" t="s">
         <v>4</v>
@@ -19501,10 +19429,10 @@
         <v>12</v>
       </c>
       <c r="E627">
-        <v>21.2</v>
+        <v>5.9</v>
       </c>
       <c r="F627">
-        <v>3.8</v>
+        <v>1.4</v>
       </c>
       <c r="G627" t="s">
         <v>15</v>
@@ -19521,10 +19449,10 @@
     </row>
     <row r="628" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A628" s="1">
-        <v>45989</v>
+        <v>45987</v>
       </c>
       <c r="B628">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C628" t="s">
         <v>4</v>
@@ -19533,10 +19461,10 @@
         <v>12</v>
       </c>
       <c r="E628">
-        <v>4.5</v>
+        <v>8.5</v>
       </c>
       <c r="F628">
-        <v>3.8</v>
+        <v>1.4</v>
       </c>
       <c r="G628" t="s">
         <v>15</v>
@@ -19553,10 +19481,10 @@
     </row>
     <row r="629" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A629" s="1">
-        <v>45989</v>
+        <v>45987</v>
       </c>
       <c r="B629">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="C629" t="s">
         <v>4</v>
@@ -19565,10 +19493,10 @@
         <v>12</v>
       </c>
       <c r="E629">
-        <v>2.1</v>
+        <v>5.4</v>
       </c>
       <c r="F629">
-        <v>3.8</v>
+        <v>1.6</v>
       </c>
       <c r="G629" t="s">
         <v>15</v>
@@ -19585,10 +19513,10 @@
     </row>
     <row r="630" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A630" s="1">
-        <v>45989</v>
+        <v>45988</v>
       </c>
       <c r="B630">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C630" t="s">
         <v>4</v>
@@ -19597,10 +19525,10 @@
         <v>12</v>
       </c>
       <c r="E630">
-        <v>2</v>
+        <v>3.6</v>
       </c>
       <c r="F630">
-        <v>3.6</v>
+        <v>1.6</v>
       </c>
       <c r="G630" t="s">
         <v>15</v>
@@ -19617,10 +19545,10 @@
     </row>
     <row r="631" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A631" s="1">
-        <v>45989</v>
+        <v>45988</v>
       </c>
       <c r="B631">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C631" t="s">
         <v>4</v>
@@ -19629,10 +19557,10 @@
         <v>12</v>
       </c>
       <c r="E631">
-        <v>3.2</v>
+        <v>7.9</v>
       </c>
       <c r="F631">
-        <v>3.5</v>
+        <v>1.7</v>
       </c>
       <c r="G631" t="s">
         <v>15</v>
@@ -19649,10 +19577,10 @@
     </row>
     <row r="632" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A632" s="1">
-        <v>45989</v>
+        <v>45988</v>
       </c>
       <c r="B632">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C632" t="s">
         <v>4</v>
@@ -19661,10 +19589,10 @@
         <v>12</v>
       </c>
       <c r="E632">
-        <v>17.399999999999999</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="F632">
-        <v>3.2</v>
+        <v>1.8</v>
       </c>
       <c r="G632" t="s">
         <v>15</v>
@@ -19681,10 +19609,10 @@
     </row>
     <row r="633" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A633" s="1">
-        <v>45989</v>
+        <v>45988</v>
       </c>
       <c r="B633">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C633" t="s">
         <v>4</v>
@@ -19693,10 +19621,10 @@
         <v>12</v>
       </c>
       <c r="E633">
-        <v>4.5</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="F633">
-        <v>2.9</v>
+        <v>1.9</v>
       </c>
       <c r="G633" t="s">
         <v>15</v>
@@ -19713,10 +19641,10 @@
     </row>
     <row r="634" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A634" s="1">
-        <v>45989</v>
+        <v>45988</v>
       </c>
       <c r="B634">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C634" t="s">
         <v>4</v>
@@ -19724,11 +19652,8 @@
       <c r="D634" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E634">
-        <v>4.2</v>
-      </c>
       <c r="F634">
-        <v>2.8</v>
+        <v>2</v>
       </c>
       <c r="G634" t="s">
         <v>15</v>
@@ -19745,10 +19670,10 @@
     </row>
     <row r="635" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A635" s="1">
-        <v>45989</v>
+        <v>45988</v>
       </c>
       <c r="B635">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C635" t="s">
         <v>4</v>
@@ -19757,10 +19682,10 @@
         <v>12</v>
       </c>
       <c r="E635">
-        <v>2.6</v>
+        <v>3.9</v>
       </c>
       <c r="F635">
-        <v>2.6</v>
+        <v>1.9</v>
       </c>
       <c r="G635" t="s">
         <v>15</v>
@@ -19777,10 +19702,10 @@
     </row>
     <row r="636" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A636" s="1">
-        <v>45989</v>
+        <v>45988</v>
       </c>
       <c r="B636">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C636" t="s">
         <v>4</v>
@@ -19789,10 +19714,10 @@
         <v>12</v>
       </c>
       <c r="E636">
-        <v>1</v>
+        <v>6.2</v>
       </c>
       <c r="F636">
-        <v>2.5</v>
+        <v>1.8</v>
       </c>
       <c r="G636" t="s">
         <v>15</v>
@@ -19809,10 +19734,10 @@
     </row>
     <row r="637" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A637" s="1">
-        <v>45989</v>
+        <v>45988</v>
       </c>
       <c r="B637">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C637" t="s">
         <v>4</v>
@@ -19821,10 +19746,10 @@
         <v>12</v>
       </c>
       <c r="E637">
-        <v>4.8</v>
+        <v>7.1</v>
       </c>
       <c r="F637">
-        <v>2.6</v>
+        <v>1.9</v>
       </c>
       <c r="G637" t="s">
         <v>15</v>
@@ -19841,10 +19766,10 @@
     </row>
     <row r="638" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A638" s="1">
-        <v>45989</v>
+        <v>45988</v>
       </c>
       <c r="B638">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C638" t="s">
         <v>4</v>
@@ -19853,10 +19778,10 @@
         <v>12</v>
       </c>
       <c r="E638">
-        <v>23.2</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="F638">
-        <v>2.8</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="G638" t="s">
         <v>15</v>
@@ -19873,10 +19798,10 @@
     </row>
     <row r="639" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A639" s="1">
-        <v>45989</v>
+        <v>45988</v>
       </c>
       <c r="B639">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C639" t="s">
         <v>4</v>
@@ -19885,10 +19810,10 @@
         <v>12</v>
       </c>
       <c r="E639">
-        <v>15.8</v>
+        <v>4.8</v>
       </c>
       <c r="F639">
-        <v>2.9</v>
+        <v>2.5</v>
       </c>
       <c r="G639" t="s">
         <v>15</v>
@@ -19905,10 +19830,10 @@
     </row>
     <row r="640" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A640" s="1">
-        <v>45989</v>
+        <v>45988</v>
       </c>
       <c r="B640">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C640" t="s">
         <v>4</v>
@@ -19916,6 +19841,12 @@
       <c r="D640" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="E640">
+        <v>3.2</v>
+      </c>
+      <c r="F640">
+        <v>2.5</v>
+      </c>
       <c r="G640" t="s">
         <v>15</v>
       </c>
@@ -19931,10 +19862,10 @@
     </row>
     <row r="641" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A641" s="1">
-        <v>45989</v>
+        <v>45988</v>
       </c>
       <c r="B641">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C641" t="s">
         <v>4</v>
@@ -19942,6 +19873,12 @@
       <c r="D641" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="E641">
+        <v>1.2</v>
+      </c>
+      <c r="F641">
+        <v>2.5</v>
+      </c>
       <c r="G641" t="s">
         <v>15</v>
       </c>
@@ -19957,10 +19894,10 @@
     </row>
     <row r="642" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A642" s="1">
-        <v>45989</v>
+        <v>45988</v>
       </c>
       <c r="B642">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C642" t="s">
         <v>4</v>
@@ -19968,6 +19905,12 @@
       <c r="D642" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="E642">
+        <v>0.4</v>
+      </c>
+      <c r="F642">
+        <v>2.6</v>
+      </c>
       <c r="G642" t="s">
         <v>15</v>
       </c>
@@ -19983,10 +19926,10 @@
     </row>
     <row r="643" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A643" s="1">
-        <v>45989</v>
+        <v>45988</v>
       </c>
       <c r="B643">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C643" t="s">
         <v>4</v>
@@ -19994,6 +19937,9 @@
       <c r="D643" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="F643">
+        <v>2.6</v>
+      </c>
       <c r="G643" t="s">
         <v>15</v>
       </c>
@@ -20009,10 +19955,10 @@
     </row>
     <row r="644" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A644" s="1">
-        <v>45989</v>
+        <v>45988</v>
       </c>
       <c r="B644">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C644" t="s">
         <v>4</v>
@@ -20020,6 +19966,12 @@
       <c r="D644" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="E644">
+        <v>3.1</v>
+      </c>
+      <c r="F644">
+        <v>2.5</v>
+      </c>
       <c r="G644" t="s">
         <v>15</v>
       </c>
@@ -20035,10 +19987,10 @@
     </row>
     <row r="645" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A645" s="1">
-        <v>45989</v>
+        <v>45988</v>
       </c>
       <c r="B645">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C645" t="s">
         <v>4</v>
@@ -20046,6 +19998,12 @@
       <c r="D645" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="E645">
+        <v>30.2</v>
+      </c>
+      <c r="F645">
+        <v>2.5</v>
+      </c>
       <c r="G645" t="s">
         <v>15</v>
       </c>
@@ -20061,10 +20019,10 @@
     </row>
     <row r="646" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A646" s="1">
-        <v>45989</v>
+        <v>45988</v>
       </c>
       <c r="B646">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C646" t="s">
         <v>4</v>
@@ -20072,6 +20030,12 @@
       <c r="D646" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="E646">
+        <v>11</v>
+      </c>
+      <c r="F646">
+        <v>2.7</v>
+      </c>
       <c r="G646" t="s">
         <v>15</v>
       </c>
@@ -20087,10 +20051,10 @@
     </row>
     <row r="647" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A647" s="1">
-        <v>45989</v>
+        <v>45988</v>
       </c>
       <c r="B647">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C647" t="s">
         <v>4</v>
@@ -20098,6 +20062,12 @@
       <c r="D647" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="E647">
+        <v>8.9</v>
+      </c>
+      <c r="F647">
+        <v>2.9</v>
+      </c>
       <c r="G647" t="s">
         <v>15</v>
       </c>
@@ -20113,10 +20083,10 @@
     </row>
     <row r="648" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A648" s="1">
-        <v>45989</v>
+        <v>45988</v>
       </c>
       <c r="B648">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C648" t="s">
         <v>4</v>
@@ -20124,6 +20094,12 @@
       <c r="D648" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="E648">
+        <v>6.7</v>
+      </c>
+      <c r="F648">
+        <v>3</v>
+      </c>
       <c r="G648" t="s">
         <v>15</v>
       </c>
@@ -20139,10 +20115,10 @@
     </row>
     <row r="649" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A649" s="1">
-        <v>45989</v>
+        <v>45988</v>
       </c>
       <c r="B649">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C649" t="s">
         <v>4</v>
@@ -20150,6 +20126,12 @@
       <c r="D649" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="E649">
+        <v>5.8</v>
+      </c>
+      <c r="F649">
+        <v>3.2</v>
+      </c>
       <c r="G649" t="s">
         <v>15</v>
       </c>
@@ -20165,10 +20147,10 @@
     </row>
     <row r="650" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A650" s="1">
-        <v>45989</v>
+        <v>45988</v>
       </c>
       <c r="B650">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C650" t="s">
         <v>4</v>
@@ -20176,6 +20158,12 @@
       <c r="D650" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="E650">
+        <v>14.5</v>
+      </c>
+      <c r="F650">
+        <v>3.4</v>
+      </c>
       <c r="G650" t="s">
         <v>15</v>
       </c>
@@ -20191,10 +20179,10 @@
     </row>
     <row r="651" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A651" s="1">
-        <v>45989</v>
+        <v>45988</v>
       </c>
       <c r="B651">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C651" t="s">
         <v>4</v>
@@ -20202,6 +20190,12 @@
       <c r="D651" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="E651">
+        <v>8.5</v>
+      </c>
+      <c r="F651">
+        <v>3.6</v>
+      </c>
       <c r="G651" t="s">
         <v>15</v>
       </c>
@@ -20217,10 +20211,10 @@
     </row>
     <row r="652" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A652" s="1">
-        <v>45990</v>
+        <v>45988</v>
       </c>
       <c r="B652">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C652" t="s">
         <v>4</v>
@@ -20228,6 +20222,12 @@
       <c r="D652" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="E652">
+        <v>2.6</v>
+      </c>
+      <c r="F652">
+        <v>3.7</v>
+      </c>
       <c r="G652" t="s">
         <v>15</v>
       </c>
@@ -20243,10 +20243,10 @@
     </row>
     <row r="653" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A653" s="1">
-        <v>45990</v>
+        <v>45988</v>
       </c>
       <c r="B653">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="C653" t="s">
         <v>4</v>
@@ -20254,6 +20254,12 @@
       <c r="D653" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="E653">
+        <v>21.2</v>
+      </c>
+      <c r="F653">
+        <v>3.8</v>
+      </c>
       <c r="G653" t="s">
         <v>15</v>
       </c>
@@ -20269,10 +20275,10 @@
     </row>
     <row r="654" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A654" s="1">
-        <v>45990</v>
+        <v>45989</v>
       </c>
       <c r="B654">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C654" t="s">
         <v>4</v>
@@ -20280,6 +20286,12 @@
       <c r="D654" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="E654">
+        <v>4.5</v>
+      </c>
+      <c r="F654">
+        <v>3.8</v>
+      </c>
       <c r="G654" t="s">
         <v>15</v>
       </c>
@@ -20295,10 +20307,10 @@
     </row>
     <row r="655" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A655" s="1">
-        <v>45990</v>
+        <v>45989</v>
       </c>
       <c r="B655">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C655" t="s">
         <v>4</v>
@@ -20306,6 +20318,12 @@
       <c r="D655" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="E655">
+        <v>2.1</v>
+      </c>
+      <c r="F655">
+        <v>3.8</v>
+      </c>
       <c r="G655" t="s">
         <v>15</v>
       </c>
@@ -20321,10 +20339,10 @@
     </row>
     <row r="656" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A656" s="1">
-        <v>45990</v>
+        <v>45989</v>
       </c>
       <c r="B656">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C656" t="s">
         <v>4</v>
@@ -20332,6 +20350,12 @@
       <c r="D656" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="E656">
+        <v>2</v>
+      </c>
+      <c r="F656">
+        <v>3.6</v>
+      </c>
       <c r="G656" t="s">
         <v>15</v>
       </c>
@@ -20347,10 +20371,10 @@
     </row>
     <row r="657" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A657" s="1">
-        <v>45990</v>
+        <v>45989</v>
       </c>
       <c r="B657">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C657" t="s">
         <v>4</v>
@@ -20358,6 +20382,12 @@
       <c r="D657" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="E657">
+        <v>3.2</v>
+      </c>
+      <c r="F657">
+        <v>3.5</v>
+      </c>
       <c r="G657" t="s">
         <v>15</v>
       </c>
@@ -20373,10 +20403,10 @@
     </row>
     <row r="658" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A658" s="1">
-        <v>45990</v>
+        <v>45989</v>
       </c>
       <c r="B658">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C658" t="s">
         <v>4</v>
@@ -20385,7 +20415,10 @@
         <v>12</v>
       </c>
       <c r="E658">
-        <v>1.2</v>
+        <v>17.399999999999999</v>
+      </c>
+      <c r="F658">
+        <v>3.2</v>
       </c>
       <c r="G658" t="s">
         <v>15</v>
@@ -20402,10 +20435,10 @@
     </row>
     <row r="659" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A659" s="1">
-        <v>45990</v>
+        <v>45989</v>
       </c>
       <c r="B659">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C659" t="s">
         <v>4</v>
@@ -20413,6 +20446,12 @@
       <c r="D659" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="E659">
+        <v>4.5</v>
+      </c>
+      <c r="F659">
+        <v>2.9</v>
+      </c>
       <c r="G659" t="s">
         <v>15</v>
       </c>
@@ -20428,10 +20467,10 @@
     </row>
     <row r="660" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A660" s="1">
-        <v>45990</v>
+        <v>45989</v>
       </c>
       <c r="B660">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C660" t="s">
         <v>4</v>
@@ -20439,6 +20478,12 @@
       <c r="D660" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="E660">
+        <v>4.2</v>
+      </c>
+      <c r="F660">
+        <v>2.8</v>
+      </c>
       <c r="G660" t="s">
         <v>15</v>
       </c>
@@ -20454,10 +20499,10 @@
     </row>
     <row r="661" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A661" s="1">
-        <v>45990</v>
+        <v>45989</v>
       </c>
       <c r="B661">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C661" t="s">
         <v>4</v>
@@ -20465,6 +20510,12 @@
       <c r="D661" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="E661">
+        <v>2.6</v>
+      </c>
+      <c r="F661">
+        <v>2.6</v>
+      </c>
       <c r="G661" t="s">
         <v>15</v>
       </c>
@@ -20480,10 +20531,10 @@
     </row>
     <row r="662" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A662" s="1">
-        <v>45990</v>
+        <v>45989</v>
       </c>
       <c r="B662">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C662" t="s">
         <v>4</v>
@@ -20491,6 +20542,12 @@
       <c r="D662" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="E662">
+        <v>1</v>
+      </c>
+      <c r="F662">
+        <v>2.5</v>
+      </c>
       <c r="G662" t="s">
         <v>15</v>
       </c>
@@ -20506,10 +20563,10 @@
     </row>
     <row r="663" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A663" s="1">
-        <v>45990</v>
+        <v>45989</v>
       </c>
       <c r="B663">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C663" t="s">
         <v>4</v>
@@ -20517,8 +20574,11 @@
       <c r="D663" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="E663">
+        <v>4.8</v>
+      </c>
       <c r="F663">
-        <v>1.8</v>
+        <v>2.6</v>
       </c>
       <c r="G663" t="s">
         <v>15</v>
@@ -20535,10 +20595,10 @@
     </row>
     <row r="664" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A664" s="1">
-        <v>45990</v>
+        <v>45989</v>
       </c>
       <c r="B664">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C664" t="s">
         <v>4</v>
@@ -20546,8 +20606,11 @@
       <c r="D664" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="E664">
+        <v>23.2</v>
+      </c>
       <c r="F664">
-        <v>1.7</v>
+        <v>2.8</v>
       </c>
       <c r="G664" t="s">
         <v>15</v>
@@ -20564,10 +20627,10 @@
     </row>
     <row r="665" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A665" s="1">
-        <v>45990</v>
+        <v>45989</v>
       </c>
       <c r="B665">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C665" t="s">
         <v>4</v>
@@ -20575,8 +20638,11 @@
       <c r="D665" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="E665">
+        <v>15.8</v>
+      </c>
       <c r="F665">
-        <v>1.7</v>
+        <v>2.9</v>
       </c>
       <c r="G665" t="s">
         <v>15</v>
@@ -20593,10 +20659,10 @@
     </row>
     <row r="666" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A666" s="1">
-        <v>45990</v>
+        <v>45989</v>
       </c>
       <c r="B666">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C666" t="s">
         <v>4</v>
@@ -20604,9 +20670,6 @@
       <c r="D666" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F666">
-        <v>1.7</v>
-      </c>
       <c r="G666" t="s">
         <v>15</v>
       </c>
@@ -20622,10 +20685,10 @@
     </row>
     <row r="667" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A667" s="1">
-        <v>45990</v>
+        <v>45989</v>
       </c>
       <c r="B667">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C667" t="s">
         <v>4</v>
@@ -20633,9 +20696,6 @@
       <c r="D667" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F667">
-        <v>1.7</v>
-      </c>
       <c r="G667" t="s">
         <v>15</v>
       </c>
@@ -20651,10 +20711,10 @@
     </row>
     <row r="668" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A668" s="1">
-        <v>45990</v>
+        <v>45989</v>
       </c>
       <c r="B668">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C668" t="s">
         <v>4</v>
@@ -20662,9 +20722,6 @@
       <c r="D668" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F668">
-        <v>1.7</v>
-      </c>
       <c r="G668" t="s">
         <v>15</v>
       </c>
@@ -20680,10 +20737,10 @@
     </row>
     <row r="669" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A669" s="1">
-        <v>45990</v>
+        <v>45989</v>
       </c>
       <c r="B669">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C669" t="s">
         <v>4</v>
@@ -20691,9 +20748,6 @@
       <c r="D669" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F669">
-        <v>1.7</v>
-      </c>
       <c r="G669" t="s">
         <v>15</v>
       </c>
@@ -20709,10 +20763,10 @@
     </row>
     <row r="670" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A670" s="1">
-        <v>45990</v>
+        <v>45989</v>
       </c>
       <c r="B670">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C670" t="s">
         <v>4</v>
@@ -20720,9 +20774,6 @@
       <c r="D670" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F670">
-        <v>1.6</v>
-      </c>
       <c r="G670" t="s">
         <v>15</v>
       </c>
@@ -20738,10 +20789,10 @@
     </row>
     <row r="671" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A671" s="1">
-        <v>45990</v>
+        <v>45989</v>
       </c>
       <c r="B671">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C671" t="s">
         <v>4</v>
@@ -20749,9 +20800,6 @@
       <c r="D671" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F671">
-        <v>1.6</v>
-      </c>
       <c r="G671" t="s">
         <v>15</v>
       </c>
@@ -20767,10 +20815,10 @@
     </row>
     <row r="672" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A672" s="1">
-        <v>45990</v>
+        <v>45989</v>
       </c>
       <c r="B672">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C672" t="s">
         <v>4</v>
@@ -20778,9 +20826,6 @@
       <c r="D672" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F672">
-        <v>1.6</v>
-      </c>
       <c r="G672" t="s">
         <v>15</v>
       </c>
@@ -20796,10 +20841,10 @@
     </row>
     <row r="673" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A673" s="1">
-        <v>45990</v>
+        <v>45989</v>
       </c>
       <c r="B673">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C673" t="s">
         <v>4</v>
@@ -20807,9 +20852,6 @@
       <c r="D673" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F673">
-        <v>1.6</v>
-      </c>
       <c r="G673" t="s">
         <v>15</v>
       </c>
@@ -20825,10 +20867,10 @@
     </row>
     <row r="674" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A674" s="1">
-        <v>45990</v>
+        <v>45989</v>
       </c>
       <c r="B674">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C674" t="s">
         <v>4</v>
@@ -20836,9 +20878,6 @@
       <c r="D674" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F674">
-        <v>1.6</v>
-      </c>
       <c r="G674" t="s">
         <v>15</v>
       </c>
@@ -20854,10 +20893,10 @@
     </row>
     <row r="675" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A675" s="1">
-        <v>45990</v>
+        <v>45989</v>
       </c>
       <c r="B675">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C675" t="s">
         <v>4</v>
@@ -20865,9 +20904,6 @@
       <c r="D675" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F675">
-        <v>1.6</v>
-      </c>
       <c r="G675" t="s">
         <v>15</v>
       </c>
@@ -20883,10 +20919,10 @@
     </row>
     <row r="676" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A676" s="1">
-        <v>45991</v>
+        <v>45989</v>
       </c>
       <c r="B676">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C676" t="s">
         <v>4</v>
@@ -20894,9 +20930,6 @@
       <c r="D676" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F676">
-        <v>1.6</v>
-      </c>
       <c r="G676" t="s">
         <v>15</v>
       </c>
@@ -20912,10 +20945,10 @@
     </row>
     <row r="677" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A677" s="1">
-        <v>45991</v>
+        <v>45989</v>
       </c>
       <c r="B677">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="C677" t="s">
         <v>4</v>
@@ -20923,9 +20956,6 @@
       <c r="D677" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F677">
-        <v>1.6</v>
-      </c>
       <c r="G677" t="s">
         <v>15</v>
       </c>
@@ -20941,10 +20971,10 @@
     </row>
     <row r="678" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A678" s="1">
-        <v>45991</v>
+        <v>45990</v>
       </c>
       <c r="B678">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C678" t="s">
         <v>4</v>
@@ -20952,9 +20982,6 @@
       <c r="D678" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F678">
-        <v>1.6</v>
-      </c>
       <c r="G678" t="s">
         <v>15</v>
       </c>
@@ -20970,10 +20997,10 @@
     </row>
     <row r="679" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A679" s="1">
-        <v>45991</v>
+        <v>45990</v>
       </c>
       <c r="B679">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C679" t="s">
         <v>4</v>
@@ -20981,9 +21008,6 @@
       <c r="D679" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F679">
-        <v>1.5</v>
-      </c>
       <c r="G679" t="s">
         <v>15</v>
       </c>
@@ -20999,10 +21023,10 @@
     </row>
     <row r="680" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A680" s="1">
-        <v>45991</v>
+        <v>45990</v>
       </c>
       <c r="B680">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C680" t="s">
         <v>4</v>
@@ -21010,9 +21034,6 @@
       <c r="D680" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F680">
-        <v>1.5</v>
-      </c>
       <c r="G680" t="s">
         <v>15</v>
       </c>
@@ -21028,10 +21049,10 @@
     </row>
     <row r="681" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A681" s="1">
-        <v>45991</v>
+        <v>45990</v>
       </c>
       <c r="B681">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C681" t="s">
         <v>4</v>
@@ -21039,9 +21060,6 @@
       <c r="D681" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F681">
-        <v>1.5</v>
-      </c>
       <c r="G681" t="s">
         <v>15</v>
       </c>
@@ -21057,10 +21075,10 @@
     </row>
     <row r="682" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A682" s="1">
-        <v>45991</v>
+        <v>45990</v>
       </c>
       <c r="B682">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C682" t="s">
         <v>4</v>
@@ -21068,9 +21086,6 @@
       <c r="D682" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F682">
-        <v>1.5</v>
-      </c>
       <c r="G682" t="s">
         <v>15</v>
       </c>
@@ -21086,10 +21101,10 @@
     </row>
     <row r="683" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A683" s="1">
-        <v>45991</v>
+        <v>45990</v>
       </c>
       <c r="B683">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C683" t="s">
         <v>4</v>
@@ -21097,9 +21112,6 @@
       <c r="D683" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F683">
-        <v>1.5</v>
-      </c>
       <c r="G683" t="s">
         <v>15</v>
       </c>
@@ -21115,10 +21127,10 @@
     </row>
     <row r="684" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A684" s="1">
-        <v>45991</v>
+        <v>45990</v>
       </c>
       <c r="B684">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C684" t="s">
         <v>4</v>
@@ -21126,8 +21138,8 @@
       <c r="D684" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F684">
-        <v>1.4</v>
+      <c r="E684">
+        <v>1.2</v>
       </c>
       <c r="G684" t="s">
         <v>15</v>
@@ -21144,10 +21156,10 @@
     </row>
     <row r="685" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A685" s="1">
-        <v>45991</v>
+        <v>45990</v>
       </c>
       <c r="B685">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C685" t="s">
         <v>4</v>
@@ -21155,9 +21167,6 @@
       <c r="D685" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F685">
-        <v>1.4</v>
-      </c>
       <c r="G685" t="s">
         <v>15</v>
       </c>
@@ -21173,10 +21182,10 @@
     </row>
     <row r="686" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A686" s="1">
-        <v>45991</v>
+        <v>45990</v>
       </c>
       <c r="B686">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C686" t="s">
         <v>4</v>
@@ -21184,9 +21193,6 @@
       <c r="D686" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F686">
-        <v>1.4</v>
-      </c>
       <c r="G686" t="s">
         <v>15</v>
       </c>
@@ -21197,6 +21203,754 @@
         <v>3</v>
       </c>
       <c r="J686">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="687" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A687" s="1">
+        <v>45990</v>
+      </c>
+      <c r="B687">
+        <v>10</v>
+      </c>
+      <c r="C687" t="s">
+        <v>4</v>
+      </c>
+      <c r="D687" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G687" t="s">
+        <v>15</v>
+      </c>
+      <c r="H687">
+        <v>1.5</v>
+      </c>
+      <c r="I687">
+        <v>3</v>
+      </c>
+      <c r="J687">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="688" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A688" s="1">
+        <v>45990</v>
+      </c>
+      <c r="B688">
+        <v>11</v>
+      </c>
+      <c r="C688" t="s">
+        <v>4</v>
+      </c>
+      <c r="D688" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G688" t="s">
+        <v>15</v>
+      </c>
+      <c r="H688">
+        <v>1.5</v>
+      </c>
+      <c r="I688">
+        <v>3</v>
+      </c>
+      <c r="J688">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="689" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A689" s="1">
+        <v>45990</v>
+      </c>
+      <c r="B689">
+        <v>12</v>
+      </c>
+      <c r="C689" t="s">
+        <v>4</v>
+      </c>
+      <c r="D689" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F689">
+        <v>1.8</v>
+      </c>
+      <c r="G689" t="s">
+        <v>15</v>
+      </c>
+      <c r="H689">
+        <v>1.5</v>
+      </c>
+      <c r="I689">
+        <v>3</v>
+      </c>
+      <c r="J689">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="690" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A690" s="1">
+        <v>45990</v>
+      </c>
+      <c r="B690">
+        <v>13</v>
+      </c>
+      <c r="C690" t="s">
+        <v>4</v>
+      </c>
+      <c r="D690" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F690">
+        <v>1.7</v>
+      </c>
+      <c r="G690" t="s">
+        <v>15</v>
+      </c>
+      <c r="H690">
+        <v>1.5</v>
+      </c>
+      <c r="I690">
+        <v>3</v>
+      </c>
+      <c r="J690">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="691" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A691" s="1">
+        <v>45990</v>
+      </c>
+      <c r="B691">
+        <v>14</v>
+      </c>
+      <c r="C691" t="s">
+        <v>4</v>
+      </c>
+      <c r="D691" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F691">
+        <v>1.7</v>
+      </c>
+      <c r="G691" t="s">
+        <v>15</v>
+      </c>
+      <c r="H691">
+        <v>1.5</v>
+      </c>
+      <c r="I691">
+        <v>3</v>
+      </c>
+      <c r="J691">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="692" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A692" s="1">
+        <v>45990</v>
+      </c>
+      <c r="B692">
+        <v>15</v>
+      </c>
+      <c r="C692" t="s">
+        <v>4</v>
+      </c>
+      <c r="D692" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F692">
+        <v>1.7</v>
+      </c>
+      <c r="G692" t="s">
+        <v>15</v>
+      </c>
+      <c r="H692">
+        <v>1.5</v>
+      </c>
+      <c r="I692">
+        <v>3</v>
+      </c>
+      <c r="J692">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="693" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A693" s="1">
+        <v>45990</v>
+      </c>
+      <c r="B693">
+        <v>16</v>
+      </c>
+      <c r="C693" t="s">
+        <v>4</v>
+      </c>
+      <c r="D693" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F693">
+        <v>1.7</v>
+      </c>
+      <c r="G693" t="s">
+        <v>15</v>
+      </c>
+      <c r="H693">
+        <v>1.5</v>
+      </c>
+      <c r="I693">
+        <v>3</v>
+      </c>
+      <c r="J693">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="694" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A694" s="1">
+        <v>45990</v>
+      </c>
+      <c r="B694">
+        <v>17</v>
+      </c>
+      <c r="C694" t="s">
+        <v>4</v>
+      </c>
+      <c r="D694" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F694">
+        <v>1.7</v>
+      </c>
+      <c r="G694" t="s">
+        <v>15</v>
+      </c>
+      <c r="H694">
+        <v>1.5</v>
+      </c>
+      <c r="I694">
+        <v>3</v>
+      </c>
+      <c r="J694">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="695" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A695" s="1">
+        <v>45990</v>
+      </c>
+      <c r="B695">
+        <v>18</v>
+      </c>
+      <c r="C695" t="s">
+        <v>4</v>
+      </c>
+      <c r="D695" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F695">
+        <v>1.7</v>
+      </c>
+      <c r="G695" t="s">
+        <v>15</v>
+      </c>
+      <c r="H695">
+        <v>1.5</v>
+      </c>
+      <c r="I695">
+        <v>3</v>
+      </c>
+      <c r="J695">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="696" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A696" s="1">
+        <v>45990</v>
+      </c>
+      <c r="B696">
+        <v>19</v>
+      </c>
+      <c r="C696" t="s">
+        <v>4</v>
+      </c>
+      <c r="D696" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F696">
+        <v>1.6</v>
+      </c>
+      <c r="G696" t="s">
+        <v>15</v>
+      </c>
+      <c r="H696">
+        <v>1.5</v>
+      </c>
+      <c r="I696">
+        <v>3</v>
+      </c>
+      <c r="J696">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="697" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A697" s="1">
+        <v>45990</v>
+      </c>
+      <c r="B697">
+        <v>20</v>
+      </c>
+      <c r="C697" t="s">
+        <v>4</v>
+      </c>
+      <c r="D697" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F697">
+        <v>1.6</v>
+      </c>
+      <c r="G697" t="s">
+        <v>15</v>
+      </c>
+      <c r="H697">
+        <v>1.5</v>
+      </c>
+      <c r="I697">
+        <v>3</v>
+      </c>
+      <c r="J697">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="698" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A698" s="1">
+        <v>45990</v>
+      </c>
+      <c r="B698">
+        <v>21</v>
+      </c>
+      <c r="C698" t="s">
+        <v>4</v>
+      </c>
+      <c r="D698" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F698">
+        <v>1.6</v>
+      </c>
+      <c r="G698" t="s">
+        <v>15</v>
+      </c>
+      <c r="H698">
+        <v>1.5</v>
+      </c>
+      <c r="I698">
+        <v>3</v>
+      </c>
+      <c r="J698">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="699" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A699" s="1">
+        <v>45990</v>
+      </c>
+      <c r="B699">
+        <v>22</v>
+      </c>
+      <c r="C699" t="s">
+        <v>4</v>
+      </c>
+      <c r="D699" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F699">
+        <v>1.6</v>
+      </c>
+      <c r="G699" t="s">
+        <v>15</v>
+      </c>
+      <c r="H699">
+        <v>1.5</v>
+      </c>
+      <c r="I699">
+        <v>3</v>
+      </c>
+      <c r="J699">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="700" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A700" s="1">
+        <v>45990</v>
+      </c>
+      <c r="B700">
+        <v>23</v>
+      </c>
+      <c r="C700" t="s">
+        <v>4</v>
+      </c>
+      <c r="D700" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F700">
+        <v>1.6</v>
+      </c>
+      <c r="G700" t="s">
+        <v>15</v>
+      </c>
+      <c r="H700">
+        <v>1.5</v>
+      </c>
+      <c r="I700">
+        <v>3</v>
+      </c>
+      <c r="J700">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="701" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A701" s="1">
+        <v>45990</v>
+      </c>
+      <c r="B701">
+        <v>24</v>
+      </c>
+      <c r="C701" t="s">
+        <v>4</v>
+      </c>
+      <c r="D701" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F701">
+        <v>1.6</v>
+      </c>
+      <c r="G701" t="s">
+        <v>15</v>
+      </c>
+      <c r="H701">
+        <v>1.5</v>
+      </c>
+      <c r="I701">
+        <v>3</v>
+      </c>
+      <c r="J701">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="702" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A702" s="1">
+        <v>45991</v>
+      </c>
+      <c r="B702">
+        <v>1</v>
+      </c>
+      <c r="C702" t="s">
+        <v>4</v>
+      </c>
+      <c r="D702" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F702">
+        <v>1.6</v>
+      </c>
+      <c r="G702" t="s">
+        <v>15</v>
+      </c>
+      <c r="H702">
+        <v>1.5</v>
+      </c>
+      <c r="I702">
+        <v>3</v>
+      </c>
+      <c r="J702">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="703" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A703" s="1">
+        <v>45991</v>
+      </c>
+      <c r="B703">
+        <v>2</v>
+      </c>
+      <c r="C703" t="s">
+        <v>4</v>
+      </c>
+      <c r="D703" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F703">
+        <v>1.6</v>
+      </c>
+      <c r="G703" t="s">
+        <v>15</v>
+      </c>
+      <c r="H703">
+        <v>1.5</v>
+      </c>
+      <c r="I703">
+        <v>3</v>
+      </c>
+      <c r="J703">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="704" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A704" s="1">
+        <v>45991</v>
+      </c>
+      <c r="B704">
+        <v>3</v>
+      </c>
+      <c r="C704" t="s">
+        <v>4</v>
+      </c>
+      <c r="D704" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F704">
+        <v>1.6</v>
+      </c>
+      <c r="G704" t="s">
+        <v>15</v>
+      </c>
+      <c r="H704">
+        <v>1.5</v>
+      </c>
+      <c r="I704">
+        <v>3</v>
+      </c>
+      <c r="J704">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="705" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A705" s="1">
+        <v>45991</v>
+      </c>
+      <c r="B705">
+        <v>4</v>
+      </c>
+      <c r="C705" t="s">
+        <v>4</v>
+      </c>
+      <c r="D705" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F705">
+        <v>1.5</v>
+      </c>
+      <c r="G705" t="s">
+        <v>15</v>
+      </c>
+      <c r="H705">
+        <v>1.5</v>
+      </c>
+      <c r="I705">
+        <v>3</v>
+      </c>
+      <c r="J705">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="706" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A706" s="1">
+        <v>45991</v>
+      </c>
+      <c r="B706">
+        <v>5</v>
+      </c>
+      <c r="C706" t="s">
+        <v>4</v>
+      </c>
+      <c r="D706" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F706">
+        <v>1.5</v>
+      </c>
+      <c r="G706" t="s">
+        <v>15</v>
+      </c>
+      <c r="H706">
+        <v>1.5</v>
+      </c>
+      <c r="I706">
+        <v>3</v>
+      </c>
+      <c r="J706">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="707" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A707" s="1">
+        <v>45991</v>
+      </c>
+      <c r="B707">
+        <v>6</v>
+      </c>
+      <c r="C707" t="s">
+        <v>4</v>
+      </c>
+      <c r="D707" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F707">
+        <v>1.5</v>
+      </c>
+      <c r="G707" t="s">
+        <v>15</v>
+      </c>
+      <c r="H707">
+        <v>1.5</v>
+      </c>
+      <c r="I707">
+        <v>3</v>
+      </c>
+      <c r="J707">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="708" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A708" s="1">
+        <v>45991</v>
+      </c>
+      <c r="B708">
+        <v>7</v>
+      </c>
+      <c r="C708" t="s">
+        <v>4</v>
+      </c>
+      <c r="D708" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F708">
+        <v>1.5</v>
+      </c>
+      <c r="G708" t="s">
+        <v>15</v>
+      </c>
+      <c r="H708">
+        <v>1.5</v>
+      </c>
+      <c r="I708">
+        <v>3</v>
+      </c>
+      <c r="J708">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="709" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A709" s="1">
+        <v>45991</v>
+      </c>
+      <c r="B709">
+        <v>8</v>
+      </c>
+      <c r="C709" t="s">
+        <v>4</v>
+      </c>
+      <c r="D709" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F709">
+        <v>1.5</v>
+      </c>
+      <c r="G709" t="s">
+        <v>15</v>
+      </c>
+      <c r="H709">
+        <v>1.5</v>
+      </c>
+      <c r="I709">
+        <v>3</v>
+      </c>
+      <c r="J709">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="710" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A710" s="1">
+        <v>45991</v>
+      </c>
+      <c r="B710">
+        <v>9</v>
+      </c>
+      <c r="C710" t="s">
+        <v>4</v>
+      </c>
+      <c r="D710" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F710">
+        <v>1.4</v>
+      </c>
+      <c r="G710" t="s">
+        <v>15</v>
+      </c>
+      <c r="H710">
+        <v>1.5</v>
+      </c>
+      <c r="I710">
+        <v>3</v>
+      </c>
+      <c r="J710">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="711" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A711" s="1">
+        <v>45991</v>
+      </c>
+      <c r="B711">
+        <v>10</v>
+      </c>
+      <c r="C711" t="s">
+        <v>4</v>
+      </c>
+      <c r="D711" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F711">
+        <v>1.4</v>
+      </c>
+      <c r="G711" t="s">
+        <v>15</v>
+      </c>
+      <c r="H711">
+        <v>1.5</v>
+      </c>
+      <c r="I711">
+        <v>3</v>
+      </c>
+      <c r="J711">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="712" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A712" s="1">
+        <v>45991</v>
+      </c>
+      <c r="B712">
+        <v>11</v>
+      </c>
+      <c r="C712" t="s">
+        <v>4</v>
+      </c>
+      <c r="D712" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F712">
+        <v>1.4</v>
+      </c>
+      <c r="G712" t="s">
+        <v>15</v>
+      </c>
+      <c r="H712">
+        <v>1.5</v>
+      </c>
+      <c r="I712">
+        <v>3</v>
+      </c>
+      <c r="J712">
         <v>4.5</v>
       </c>
     </row>
